--- a/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B13AF9-346C-194B-A161-602AFCF8A4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01562B-4DA1-E041-A5AC-6EDC7876EBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Ration of residence</t>
   </si>
@@ -146,7 +146,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -241,26 +241,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -578,11 +578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24"/>
     <col min="2" max="2" width="21"/>
@@ -616,8 +616,10 @@
       </c>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -627,7 +629,9 @@
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -637,7 +641,9 @@
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -646,8 +652,10 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -671,7 +679,9 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -681,7 +691,9 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -690,8 +702,10 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -715,7 +729,9 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -725,7 +741,9 @@
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -735,7 +753,9 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
@@ -744,8 +764,10 @@
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -769,7 +791,9 @@
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -778,8 +802,10 @@
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -789,7 +815,9 @@
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -798,8 +826,10 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -821,7 +851,9 @@
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -830,8 +862,10 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -853,7 +887,9 @@
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
@@ -863,7 +899,9 @@
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
@@ -872,8 +910,10 @@
       </c>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
@@ -883,7 +923,9 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
@@ -892,8 +934,10 @@
       </c>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="8" t="s">
         <v>6</v>
       </c>
@@ -915,7 +959,9 @@
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
@@ -925,7 +971,9 @@
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -934,8 +982,10 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
@@ -945,7 +995,9 @@
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -954,8 +1006,10 @@
       </c>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1032,10 @@
       </c>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B37" s="8" t="s">
         <v>30</v>
       </c>
@@ -988,8 +1044,10 @@
       </c>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
@@ -998,8 +1056,10 @@
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1080,7 @@
         <v>9043</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>34</v>
       </c>
@@ -1029,13 +1089,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="39" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01562B-4DA1-E041-A5AC-6EDC7876EBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B164465-C3C9-A34E-92A8-25CBC708C288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>Ration of residence</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Jugoslavia —</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eureka  </t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t xml:space="preserve">All others  </t>
   </si>
   <si>
-    <t>Italy  —---</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great Britain </t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t xml:space="preserve">Santa Barbara </t>
   </si>
   <si>
-    <t xml:space="preserve">Los Angelos </t>
-  </si>
-  <si>
     <t xml:space="preserve">United States </t>
   </si>
   <si>
@@ -138,6 +129,12 @@
   </si>
   <si>
     <t>Alaska Washington and Oregon fishermen licensed in California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">united States </t>
   </si>
 </sst>
 </file>
@@ -578,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -606,10 +603,10 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="12">
         <v>136</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -630,7 +627,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -642,10 +639,10 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="12">
         <v>11</v>
@@ -654,7 +651,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
@@ -668,10 +665,10 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12">
         <v>227</v>
@@ -680,10 +677,10 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="12">
         <v>102</v>
@@ -692,7 +689,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -704,7 +701,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -718,10 +715,10 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="16">
         <v>422</v>
@@ -730,10 +727,10 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="12">
         <v>310</v>
@@ -742,10 +739,10 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="12">
         <v>80</v>
@@ -754,10 +751,10 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12">
         <v>39</v>
@@ -766,7 +763,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -780,10 +777,10 @@
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12">
         <v>530</v>
@@ -792,10 +789,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="12">
         <v>333</v>
@@ -804,10 +801,10 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="14">
         <v>39</v>
@@ -816,10 +813,10 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="12">
         <v>20</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>6</v>
@@ -842,9 +839,11 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="12">
         <v>239</v>
       </c>
@@ -852,10 +851,10 @@
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12">
         <v>13</v>
@@ -864,10 +863,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="14">
         <v>54</v>
@@ -878,9 +877,11 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="12">
         <v>2911</v>
       </c>
@@ -888,10 +889,10 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C25" s="12">
         <v>846</v>
@@ -900,10 +901,10 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="12">
         <v>200</v>
@@ -912,10 +913,10 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="14">
         <v>132</v>
@@ -924,10 +925,10 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="12">
         <v>59</v>
@@ -936,7 +937,7 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>6</v>
@@ -950,9 +951,11 @@
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="12">
         <v>765</v>
       </c>
@@ -960,10 +963,10 @@
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="12">
         <v>272</v>
@@ -972,10 +975,10 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="12">
         <v>233</v>
@@ -984,10 +987,10 @@
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15">
         <v>35</v>
@@ -996,10 +999,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="12">
         <v>22</v>
@@ -1008,7 +1011,7 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>6</v>
@@ -1022,10 +1025,10 @@
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="12">
         <v>283</v>
@@ -1034,10 +1037,10 @@
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="16">
         <v>116</v>
@@ -1046,10 +1049,10 @@
     </row>
     <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="12">
         <v>29</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>6</v>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="40" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="17"/>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="19">
         <f>SUM(D2:D39)-D40</f>
